--- a/biology/Botanique/Thalassionematales/Thalassionematales.xlsx
+++ b/biology/Botanique/Thalassionematales/Thalassionematales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Thalassionematales sont un ordre d'algues de l'embranchement des Ochrophyta ou des Bacillariophyta (selon la classification)  et de la classe des Bacillariophyceae.
 ,
@@ -512,13 +524,15 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'ordre des Thalassionematales a été créé en 1990 par le botaniste et phycologue britannique Frank Eric Round (d) (1927–2010)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'ordre des Thalassionematales a été créé en 1990 par le botaniste et phycologue britannique Frank Eric Round (d) (1927–2010).
 Les diverses classifications ne sont pas en phase sur l'attribution d'un l'embranchement à cet ordre :
-selon BioLib[3], Heterokontophyta ;
-selon GBIF[4], Ochrophyta ;
-selon AlgaeBASE [1], IRMNG[5],  Paleobiology Database[6] (PBDB/TPDB), Taxonomicon[7] et WoRMS[2], Bacillariophyta.</t>
+selon BioLib, Heterokontophyta ;
+selon GBIF, Ochrophyta ;
+selon AlgaeBASE , IRMNG,  Paleobiology Database (PBDB/TPDB), Taxonomicon et WoRMS, Bacillariophyta.</t>
         </is>
       </c>
     </row>
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -573,6 +589,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,9 +616,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (10 mai 2022)[1] : :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (10 mai 2022) : :
 Thalassionemataceae Round, 1990</t>
         </is>
       </c>
